--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1\naveen\Project\Final\scrap example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C0C52-997F-4270-84D2-0035653ECC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D058AC-FE0C-4117-BDCD-B3564A6CB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Domain</t>
+  </si>
   <si>
     <t>bar-n-ranch.com</t>
   </si>
   <si>
+    <t>barcelona-enabled.com</t>
+  </si>
+  <si>
     <t>barefootamelia.com</t>
   </si>
   <si>
@@ -46,12 +52,6 @@
     <t>basswoodresort.com</t>
   </si>
   <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>barcelona-enabled.com</t>
-  </si>
-  <si>
     <t>bateriariopreto.com.br</t>
   </si>
   <si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>baytobeachbuilders.com</t>
+  </si>
+  <si>
+    <t>bbb-lawfirm.com</t>
+  </si>
+  <si>
+    <t>bbithaca.com</t>
+  </si>
+  <si>
+    <t>bcn-rentals.com</t>
+  </si>
+  <si>
+    <t>beachcomberonvilano.com</t>
+  </si>
+  <si>
+    <t>beachcottagesbarbados.com</t>
+  </si>
+  <si>
+    <t>beachhaus.net</t>
+  </si>
+  <si>
+    <t>beachhaven-rental.com</t>
+  </si>
+  <si>
+    <t>beachhavenvillas.com</t>
+  </si>
+  <si>
+    <t>beachhouseinnandsuites.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +491,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,52 +501,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -578,31 +605,49 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -665,7 +710,37 @@
       <c r="A50" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://bar-n-ranch.com/" xr:uid="{72CBD66B-9612-40D5-AA39-564622D55888}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://barcelona-enabled.com/" xr:uid="{DB07DF73-66B0-4573-930F-79BC11971078}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://barefootamelia.com/" xr:uid="{C3E8BC69-9018-40CA-B792-49D575864675}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://barmranch.com/" xr:uid="{7CC2F65C-DC60-4A98-A1BD-F260812A88A6}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://barnstablepatriot.com/" xr:uid="{CA1F4214-84EE-4514-88E2-1FE51AA4B427}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://barrieapartmentrentalsonline.com/" xr:uid="{7770852E-D264-4E66-9B96-EE345CCCF9FC}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://basquehomes.com/" xr:uid="{3949C256-9FF4-4A14-B812-EA6867EBC1CF}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://bassmaster.com/" xr:uid="{87A97859-E13E-4F36-A2ED-472BD2DDF689}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://basswoodresort.com/" xr:uid="{0A0109A8-5272-440F-B458-A01AEAF94441}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://bateriariopreto.com.br/" xr:uid="{4F345E12-28E3-4AB9-83C1-1322E9A5CB60}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://bavarian-forest-holidays.com/" xr:uid="{AD3288A0-6311-4DD1-905D-C341D86CFE59}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://bavarovilla.com/" xr:uid="{0D1EEE3D-B65B-4A30-89DC-FA7C861C166D}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://baxterboo.com/" xr:uid="{166CFD50-376B-45A5-A70A-00C048483E6A}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://baxterparkinn.com/" xr:uid="{9AE14C9C-4F81-4B45-A776-C3A69BA36107}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://baxterstateparkauthority.com/" xr:uid="{97C4A6BA-0F54-4C22-B019-562D98CF8357}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://bayareajump.com/" xr:uid="{7BC918ED-9FC7-4DA9-BF3D-69187DCBCF8E}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://baycoclerk.com/" xr:uid="{42802056-80A1-4D5A-8C7C-014CF649288A}"/>
+    <hyperlink ref="A20" r:id="rId18" display="http://bayfrontparkmiami.com/" xr:uid="{57C31BA4-C70D-44A5-8890-C28E09B91A28}"/>
+    <hyperlink ref="A21" r:id="rId19" display="http://baytobeachbuilders.com/" xr:uid="{94D3A260-3282-4022-AEE2-3E2A3C13217F}"/>
+    <hyperlink ref="A22" r:id="rId20" display="http://bbb-lawfirm.com/" xr:uid="{4688F296-BDDC-4D95-A2C8-F1DC801CE44A}"/>
+    <hyperlink ref="A23" r:id="rId21" display="http://bbithaca.com/" xr:uid="{BF0F7A9C-EAC2-4054-A28F-B604330BC567}"/>
+    <hyperlink ref="A24" r:id="rId22" display="http://bcn-rentals.com/" xr:uid="{A5C343CA-04AA-43E5-AEF7-3D81E182F16C}"/>
+    <hyperlink ref="A25" r:id="rId23" display="http://beachcomberonvilano.com/" xr:uid="{16BBDEA0-AA19-4361-9289-BD024205D729}"/>
+    <hyperlink ref="A26" r:id="rId24" display="http://beachcottagesbarbados.com/" xr:uid="{2A820E36-ABB0-42EA-82D6-4346115A5448}"/>
+    <hyperlink ref="A27" r:id="rId25" display="http://beachhaus.net/" xr:uid="{1F06758C-10F3-4FDC-ABFD-1DDEF1D4EF62}"/>
+    <hyperlink ref="A28" r:id="rId26" display="http://beachhaven-rental.com/" xr:uid="{758B79FA-6F4F-46C2-9860-56276D6A6B4C}"/>
+    <hyperlink ref="A29" r:id="rId27" display="http://beachhavenvillas.com/" xr:uid="{08B000E7-8F67-4B5B-862B-8899B74D5011}"/>
+    <hyperlink ref="A30" r:id="rId28" display="http://beachhouseinnandsuites.com/" xr:uid="{DE0160F5-6662-45FD-941C-ACB189764839}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>